--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.982000000000001</v>
+        <v>-7.895</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.072</v>
+        <v>-12.844</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.412</v>
+        <v>-22.188</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.016</v>
+        <v>-21.897</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.48</v>
+        <v>16.516</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.572</v>
+        <v>-21.52</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.306</v>
+        <v>17.499</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.284</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.788</v>
+        <v>16.913</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.864</v>
+        <v>-13.728</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.698</v>
+        <v>-21.862</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.476</v>
+        <v>-12.294</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.704000000000001</v>
+        <v>-7.889999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.436000000000002</v>
+        <v>-8.113</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.844</v>
+        <v>-12.673</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.248000000000001</v>
+        <v>-8.285000000000002</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,13 +927,13 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.062</v>
+        <v>-12.591</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.758</v>
+        <v>16.947</v>
       </c>
     </row>
     <row r="30">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.968</v>
+        <v>-12.54</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.868</v>
+        <v>-12.759</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.744</v>
+        <v>-8.070000000000002</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.814</v>
+        <v>16.797</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.514</v>
+        <v>16.358</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.528</v>
+        <v>-20.029</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.593999999999999</v>
+        <v>-7.726999999999999</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.988</v>
+        <v>-12.782</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.953999999999999</v>
+        <v>-8.257999999999999</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.146</v>
+        <v>16.885</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.533999999999999</v>
+        <v>-7.316000000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.562</v>
+        <v>-7.394999999999999</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.148</v>
+        <v>17.176</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>16.426</v>
+        <v>16.449</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.434</v>
+        <v>-12.914</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.58</v>
+        <v>16.484</v>
       </c>
     </row>
     <row r="51">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.988</v>
+        <v>-21.894</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.13</v>
+        <v>16.198</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.204000000000001</v>
+        <v>-8.401</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.772</v>
+        <v>-7.928999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.612</v>
+        <v>-21.632</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.004</v>
+        <v>-10.98</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.052</v>
+        <v>17.241</v>
       </c>
     </row>
     <row r="70">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.236000000000001</v>
+        <v>-7.877000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.354</v>
+        <v>-13.045</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.628</v>
+        <v>-20.519</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.69</v>
+        <v>-19.951</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.778</v>
+        <v>-21.795</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>17.16</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-22.152</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.754</v>
+        <v>-13.193</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.082</v>
+        <v>-12.877</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.062</v>
+        <v>-7.452</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.65</v>
+        <v>17.637</v>
       </c>
     </row>
     <row r="93">
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.665999999999999</v>
+        <v>-7.462000000000001</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.159999999999999</v>
+        <v>-7.567</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.78</v>
+        <v>-12.665</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.16</v>
+        <v>-13.649</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,10 +2151,10 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.718</v>
+        <v>-13.048</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.93</v>
+        <v>-8.061999999999999</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.192</v>
+        <v>-13.086</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
